--- a/SubRES_TMPL/SubRes_PP_NEW_TRANS.xlsx
+++ b/SubRES_TMPL/SubRes_PP_NEW_TRANS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/8760 - Model Student Team/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{1EC9A313-EC90-4A0F-8C60-9F2FBF776AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C572076-3DD4-4CD1-AA6C-D84030541BFC}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{1EC9A313-EC90-4A0F-8C60-9F2FBF776AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1D18A35-33DD-41B0-9649-0A976586413C}"/>
   <bookViews>
-    <workbookView xWindow="14496" yWindow="3204" windowWidth="40488" windowHeight="13608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="142">
   <si>
     <t>New Process availability by region</t>
   </si>
@@ -132,22 +132,7 @@
     <t>REG_J</t>
   </si>
   <si>
-    <t>NEW_PP_PV</t>
-  </si>
-  <si>
-    <t>NEW_PP_WIND</t>
-  </si>
-  <si>
     <t>NEW_PP_WIND_OFF</t>
-  </si>
-  <si>
-    <t>NEW_STG_LiON</t>
-  </si>
-  <si>
-    <t>NEW_ELE_UWASTE</t>
-  </si>
-  <si>
-    <t>NEW_ELE_NAT_GAS</t>
   </si>
   <si>
     <t>Additional new process data</t>
@@ -604,12 +589,264 @@
   <si>
     <t>Value in region R12</t>
   </si>
+  <si>
+    <t>NEW_PP_PV_N11</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N12</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N21</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N3</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N4</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N23</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N1</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N2</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N5</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N6</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N7</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N8</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N19</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N26</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N16</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N22</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N10</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N13</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N9</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N27</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N28</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N17</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N18</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N24</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N14</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N15</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N20</t>
+  </si>
+  <si>
+    <t>NEW_PP_PV_N25</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N11</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N12</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N21</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N3</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N4</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N23</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N1</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N2</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N5</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N6</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N7</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N8</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N19</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N26</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N16</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N22</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N10</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N13</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N9</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N27</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N28</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N17</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N18</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N24</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N14</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N15</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N20</t>
+  </si>
+  <si>
+    <t>NEW_PP_WIND_N25</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N11</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N12</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N21</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N3</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N4</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N23</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N1</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N2</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N5</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N6</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N7</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N8</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N19</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N26</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N16</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N22</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N10</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N13</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N9</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N27</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N28</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N17</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N18</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N24</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N14</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N15</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N20</t>
+  </si>
+  <si>
+    <t>NEW_STG_LiON_N25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1219,18 +1456,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N21"/>
+  <dimension ref="B2:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="16.149999999999999" thickBot="1">
+    <row r="2" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1484,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" ht="15.6">
+    <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1264,7 +1501,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:14" ht="15.6">
+    <row r="4" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1281,7 +1518,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="2:14" ht="15.6">
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1296,7 +1533,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="2:14" ht="15.6">
+    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1313,7 +1550,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="2:14" ht="16.149999999999999" thickBot="1">
+    <row r="7" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1567,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="9" spans="2:14" ht="18.75" customHeight="1">
+    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
@@ -1347,7 +1584,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
@@ -1382,221 +1619,2984 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="18.75" customHeight="1">
+    <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
+      <c r="K11" s="15">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15">
+        <v>1</v>
+      </c>
+      <c r="L12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1</v>
+      </c>
+      <c r="L13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1</v>
+      </c>
+      <c r="L14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1</v>
+      </c>
+      <c r="L16" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1</v>
+      </c>
+      <c r="K17" s="15">
+        <v>1</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15">
+        <v>1</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1</v>
+      </c>
+      <c r="L18" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1</v>
+      </c>
+      <c r="J19" s="15">
+        <v>1</v>
+      </c>
+      <c r="K19" s="15">
+        <v>1</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+      <c r="J20" s="15">
+        <v>1</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1</v>
+      </c>
+      <c r="L20" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15">
+        <v>1</v>
+      </c>
+      <c r="J21" s="15">
+        <v>1</v>
+      </c>
+      <c r="K21" s="15">
+        <v>1</v>
+      </c>
+      <c r="L21" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1</v>
+      </c>
+      <c r="J22" s="15">
+        <v>1</v>
+      </c>
+      <c r="K22" s="15">
+        <v>1</v>
+      </c>
+      <c r="L22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15">
+        <v>1</v>
+      </c>
+      <c r="J23" s="15">
+        <v>1</v>
+      </c>
+      <c r="K23" s="15">
+        <v>1</v>
+      </c>
+      <c r="L23" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1</v>
+      </c>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
+        <v>1</v>
+      </c>
+      <c r="J24" s="15">
+        <v>1</v>
+      </c>
+      <c r="K24" s="15">
+        <v>1</v>
+      </c>
+      <c r="L24" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15">
+        <v>1</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15">
+        <v>1</v>
+      </c>
+      <c r="I25" s="15">
+        <v>1</v>
+      </c>
+      <c r="J25" s="15">
+        <v>1</v>
+      </c>
+      <c r="K25" s="15">
+        <v>1</v>
+      </c>
+      <c r="L25" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15">
+        <v>1</v>
+      </c>
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1</v>
+      </c>
+      <c r="J26" s="15">
+        <v>1</v>
+      </c>
+      <c r="K26" s="15">
+        <v>1</v>
+      </c>
+      <c r="L26" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1</v>
+      </c>
+      <c r="I27" s="15">
+        <v>1</v>
+      </c>
+      <c r="J27" s="15">
+        <v>1</v>
+      </c>
+      <c r="K27" s="15">
+        <v>1</v>
+      </c>
+      <c r="L27" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15">
+        <v>1</v>
+      </c>
+      <c r="G28" s="15">
+        <v>1</v>
+      </c>
+      <c r="H28" s="15">
+        <v>1</v>
+      </c>
+      <c r="I28" s="15">
+        <v>1</v>
+      </c>
+      <c r="J28" s="15">
+        <v>1</v>
+      </c>
+      <c r="K28" s="15">
+        <v>1</v>
+      </c>
+      <c r="L28" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1</v>
+      </c>
+      <c r="I29" s="15">
+        <v>1</v>
+      </c>
+      <c r="J29" s="15">
+        <v>1</v>
+      </c>
+      <c r="K29" s="15">
+        <v>1</v>
+      </c>
+      <c r="L29" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
+      <c r="F30" s="15">
+        <v>1</v>
+      </c>
+      <c r="G30" s="15">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15">
+        <v>1</v>
+      </c>
+      <c r="I30" s="15">
+        <v>1</v>
+      </c>
+      <c r="J30" s="15">
+        <v>1</v>
+      </c>
+      <c r="K30" s="15">
+        <v>1</v>
+      </c>
+      <c r="L30" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1</v>
+      </c>
+      <c r="F31" s="15">
+        <v>1</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1</v>
+      </c>
+      <c r="I31" s="15">
+        <v>1</v>
+      </c>
+      <c r="J31" s="15">
+        <v>1</v>
+      </c>
+      <c r="K31" s="15">
+        <v>1</v>
+      </c>
+      <c r="L31" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="15">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1</v>
+      </c>
+      <c r="H32" s="15">
+        <v>1</v>
+      </c>
+      <c r="I32" s="15">
+        <v>1</v>
+      </c>
+      <c r="J32" s="15">
+        <v>1</v>
+      </c>
+      <c r="K32" s="15">
+        <v>1</v>
+      </c>
+      <c r="L32" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="15">
+        <v>1</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1</v>
+      </c>
+      <c r="H33" s="15">
+        <v>1</v>
+      </c>
+      <c r="I33" s="15">
+        <v>1</v>
+      </c>
+      <c r="J33" s="15">
+        <v>1</v>
+      </c>
+      <c r="K33" s="15">
+        <v>1</v>
+      </c>
+      <c r="L33" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="15">
+        <v>1</v>
+      </c>
+      <c r="D34" s="15">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15">
+        <v>1</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1</v>
+      </c>
+      <c r="H34" s="15">
+        <v>1</v>
+      </c>
+      <c r="I34" s="15">
+        <v>1</v>
+      </c>
+      <c r="J34" s="15">
+        <v>1</v>
+      </c>
+      <c r="K34" s="15">
+        <v>1</v>
+      </c>
+      <c r="L34" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="15">
+        <v>1</v>
+      </c>
+      <c r="D35" s="15">
+        <v>1</v>
+      </c>
+      <c r="E35" s="15">
+        <v>1</v>
+      </c>
+      <c r="F35" s="15">
+        <v>1</v>
+      </c>
+      <c r="G35" s="15">
+        <v>1</v>
+      </c>
+      <c r="H35" s="15">
+        <v>1</v>
+      </c>
+      <c r="I35" s="15">
+        <v>1</v>
+      </c>
+      <c r="J35" s="15">
+        <v>1</v>
+      </c>
+      <c r="K35" s="15">
+        <v>1</v>
+      </c>
+      <c r="L35" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1</v>
+      </c>
+      <c r="D36" s="15">
+        <v>1</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1</v>
+      </c>
+      <c r="F36" s="15">
+        <v>1</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1</v>
+      </c>
+      <c r="H36" s="15">
+        <v>1</v>
+      </c>
+      <c r="I36" s="15">
+        <v>1</v>
+      </c>
+      <c r="J36" s="15">
+        <v>1</v>
+      </c>
+      <c r="K36" s="15">
+        <v>1</v>
+      </c>
+      <c r="L36" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1</v>
+      </c>
+      <c r="F37" s="15">
+        <v>1</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1</v>
+      </c>
+      <c r="H37" s="15">
+        <v>1</v>
+      </c>
+      <c r="I37" s="15">
+        <v>1</v>
+      </c>
+      <c r="J37" s="15">
+        <v>1</v>
+      </c>
+      <c r="K37" s="15">
+        <v>1</v>
+      </c>
+      <c r="L37" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15">
+        <v>1</v>
+      </c>
+      <c r="F38" s="15">
+        <v>1</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1</v>
+      </c>
+      <c r="H38" s="15">
+        <v>1</v>
+      </c>
+      <c r="I38" s="15">
+        <v>1</v>
+      </c>
+      <c r="J38" s="15">
+        <v>1</v>
+      </c>
+      <c r="K38" s="15">
+        <v>1</v>
+      </c>
+      <c r="L38" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="15">
+        <v>1</v>
+      </c>
+      <c r="D39" s="15">
+        <v>1</v>
+      </c>
+      <c r="E39" s="15">
+        <v>1</v>
+      </c>
+      <c r="F39" s="15">
+        <v>1</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1</v>
+      </c>
+      <c r="H39" s="15">
+        <v>1</v>
+      </c>
+      <c r="I39" s="15">
+        <v>1</v>
+      </c>
+      <c r="J39" s="15">
+        <v>1</v>
+      </c>
+      <c r="K39" s="15">
+        <v>1</v>
+      </c>
+      <c r="L39" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1</v>
+      </c>
+      <c r="D40" s="15">
+        <v>1</v>
+      </c>
+      <c r="E40" s="15">
+        <v>1</v>
+      </c>
+      <c r="F40" s="15">
+        <v>1</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1</v>
+      </c>
+      <c r="H40" s="15">
+        <v>1</v>
+      </c>
+      <c r="I40" s="15">
+        <v>1</v>
+      </c>
+      <c r="J40" s="15">
+        <v>1</v>
+      </c>
+      <c r="K40" s="15">
+        <v>1</v>
+      </c>
+      <c r="L40" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1</v>
+      </c>
+      <c r="F41" s="15">
+        <v>1</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1</v>
+      </c>
+      <c r="H41" s="15">
+        <v>1</v>
+      </c>
+      <c r="I41" s="15">
+        <v>1</v>
+      </c>
+      <c r="J41" s="15">
+        <v>1</v>
+      </c>
+      <c r="K41" s="15">
+        <v>1</v>
+      </c>
+      <c r="L41" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="15">
+        <v>1</v>
+      </c>
+      <c r="D42" s="15">
+        <v>1</v>
+      </c>
+      <c r="E42" s="15">
+        <v>1</v>
+      </c>
+      <c r="F42" s="15">
+        <v>1</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1</v>
+      </c>
+      <c r="I42" s="15">
+        <v>1</v>
+      </c>
+      <c r="J42" s="15">
+        <v>1</v>
+      </c>
+      <c r="K42" s="15">
+        <v>1</v>
+      </c>
+      <c r="L42" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="15">
+        <v>1</v>
+      </c>
+      <c r="D43" s="15">
+        <v>1</v>
+      </c>
+      <c r="E43" s="15">
+        <v>1</v>
+      </c>
+      <c r="F43" s="15">
+        <v>1</v>
+      </c>
+      <c r="G43" s="15">
+        <v>1</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1</v>
+      </c>
+      <c r="I43" s="15">
+        <v>1</v>
+      </c>
+      <c r="J43" s="15">
+        <v>1</v>
+      </c>
+      <c r="K43" s="15">
+        <v>1</v>
+      </c>
+      <c r="L43" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="15">
+        <v>1</v>
+      </c>
+      <c r="D44" s="15">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15">
+        <v>1</v>
+      </c>
+      <c r="F44" s="15">
+        <v>1</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1</v>
+      </c>
+      <c r="I44" s="15">
+        <v>1</v>
+      </c>
+      <c r="J44" s="15">
+        <v>1</v>
+      </c>
+      <c r="K44" s="15">
+        <v>1</v>
+      </c>
+      <c r="L44" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="15">
+        <v>1</v>
+      </c>
+      <c r="D45" s="15">
+        <v>1</v>
+      </c>
+      <c r="E45" s="15">
+        <v>1</v>
+      </c>
+      <c r="F45" s="15">
+        <v>1</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1</v>
+      </c>
+      <c r="K45" s="15">
+        <v>1</v>
+      </c>
+      <c r="L45" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="15">
+        <v>1</v>
+      </c>
+      <c r="D46" s="15">
+        <v>1</v>
+      </c>
+      <c r="E46" s="15">
+        <v>1</v>
+      </c>
+      <c r="F46" s="15">
+        <v>1</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1</v>
+      </c>
+      <c r="I46" s="15">
+        <v>1</v>
+      </c>
+      <c r="J46" s="15">
+        <v>1</v>
+      </c>
+      <c r="K46" s="15">
+        <v>1</v>
+      </c>
+      <c r="L46" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="15">
+        <v>1</v>
+      </c>
+      <c r="D47" s="15">
+        <v>1</v>
+      </c>
+      <c r="E47" s="15">
+        <v>1</v>
+      </c>
+      <c r="F47" s="15">
+        <v>1</v>
+      </c>
+      <c r="G47" s="15">
+        <v>1</v>
+      </c>
+      <c r="H47" s="15">
+        <v>1</v>
+      </c>
+      <c r="I47" s="15">
+        <v>1</v>
+      </c>
+      <c r="J47" s="15">
+        <v>1</v>
+      </c>
+      <c r="K47" s="15">
+        <v>1</v>
+      </c>
+      <c r="L47" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="15">
+        <v>1</v>
+      </c>
+      <c r="D48" s="15">
+        <v>1</v>
+      </c>
+      <c r="E48" s="15">
+        <v>1</v>
+      </c>
+      <c r="F48" s="15">
+        <v>1</v>
+      </c>
+      <c r="G48" s="15">
+        <v>1</v>
+      </c>
+      <c r="H48" s="15">
+        <v>1</v>
+      </c>
+      <c r="I48" s="15">
+        <v>1</v>
+      </c>
+      <c r="J48" s="15">
+        <v>1</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1</v>
+      </c>
+      <c r="L48" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="15">
+        <v>1</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1</v>
+      </c>
+      <c r="E49" s="15">
+        <v>1</v>
+      </c>
+      <c r="F49" s="15">
+        <v>1</v>
+      </c>
+      <c r="G49" s="15">
+        <v>1</v>
+      </c>
+      <c r="H49" s="15">
+        <v>1</v>
+      </c>
+      <c r="I49" s="15">
+        <v>1</v>
+      </c>
+      <c r="J49" s="15">
+        <v>1</v>
+      </c>
+      <c r="K49" s="15">
+        <v>1</v>
+      </c>
+      <c r="L49" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="15">
+        <v>1</v>
+      </c>
+      <c r="D50" s="15">
+        <v>1</v>
+      </c>
+      <c r="E50" s="15">
+        <v>1</v>
+      </c>
+      <c r="F50" s="15">
+        <v>1</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1</v>
+      </c>
+      <c r="H50" s="15">
+        <v>1</v>
+      </c>
+      <c r="I50" s="15">
+        <v>1</v>
+      </c>
+      <c r="J50" s="15">
+        <v>1</v>
+      </c>
+      <c r="K50" s="15">
+        <v>1</v>
+      </c>
+      <c r="L50" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="15">
+        <v>1</v>
+      </c>
+      <c r="D51" s="15">
+        <v>1</v>
+      </c>
+      <c r="E51" s="15">
+        <v>1</v>
+      </c>
+      <c r="F51" s="15">
+        <v>1</v>
+      </c>
+      <c r="G51" s="15">
+        <v>1</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1</v>
+      </c>
+      <c r="I51" s="15">
+        <v>1</v>
+      </c>
+      <c r="J51" s="15">
+        <v>1</v>
+      </c>
+      <c r="K51" s="15">
+        <v>1</v>
+      </c>
+      <c r="L51" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="15">
+        <v>1</v>
+      </c>
+      <c r="D52" s="15">
+        <v>1</v>
+      </c>
+      <c r="E52" s="15">
+        <v>1</v>
+      </c>
+      <c r="F52" s="15">
+        <v>1</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1</v>
+      </c>
+      <c r="I52" s="15">
+        <v>1</v>
+      </c>
+      <c r="J52" s="15">
+        <v>1</v>
+      </c>
+      <c r="K52" s="15">
+        <v>1</v>
+      </c>
+      <c r="L52" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="15">
+        <v>1</v>
+      </c>
+      <c r="D53" s="15">
+        <v>1</v>
+      </c>
+      <c r="E53" s="15">
+        <v>1</v>
+      </c>
+      <c r="F53" s="15">
+        <v>1</v>
+      </c>
+      <c r="G53" s="15">
+        <v>1</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1</v>
+      </c>
+      <c r="I53" s="15">
+        <v>1</v>
+      </c>
+      <c r="J53" s="15">
+        <v>1</v>
+      </c>
+      <c r="K53" s="15">
+        <v>1</v>
+      </c>
+      <c r="L53" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="15">
+        <v>1</v>
+      </c>
+      <c r="D54" s="15">
+        <v>1</v>
+      </c>
+      <c r="E54" s="15">
+        <v>1</v>
+      </c>
+      <c r="F54" s="15">
+        <v>1</v>
+      </c>
+      <c r="G54" s="15">
+        <v>1</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1</v>
+      </c>
+      <c r="I54" s="15">
+        <v>1</v>
+      </c>
+      <c r="J54" s="15">
+        <v>1</v>
+      </c>
+      <c r="K54" s="15">
+        <v>1</v>
+      </c>
+      <c r="L54" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="15">
+        <v>1</v>
+      </c>
+      <c r="D55" s="15">
+        <v>1</v>
+      </c>
+      <c r="E55" s="15">
+        <v>1</v>
+      </c>
+      <c r="F55" s="15">
+        <v>1</v>
+      </c>
+      <c r="G55" s="15">
+        <v>1</v>
+      </c>
+      <c r="H55" s="15">
+        <v>1</v>
+      </c>
+      <c r="I55" s="15">
+        <v>1</v>
+      </c>
+      <c r="J55" s="15">
+        <v>1</v>
+      </c>
+      <c r="K55" s="15">
+        <v>1</v>
+      </c>
+      <c r="L55" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="15">
+        <v>1</v>
+      </c>
+      <c r="D56" s="15">
+        <v>1</v>
+      </c>
+      <c r="E56" s="15">
+        <v>1</v>
+      </c>
+      <c r="F56" s="15">
+        <v>1</v>
+      </c>
+      <c r="G56" s="15">
+        <v>1</v>
+      </c>
+      <c r="H56" s="15">
+        <v>1</v>
+      </c>
+      <c r="I56" s="15">
+        <v>1</v>
+      </c>
+      <c r="J56" s="15">
+        <v>1</v>
+      </c>
+      <c r="K56" s="15">
+        <v>1</v>
+      </c>
+      <c r="L56" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="15">
+        <v>1</v>
+      </c>
+      <c r="D57" s="15">
+        <v>1</v>
+      </c>
+      <c r="E57" s="15">
+        <v>1</v>
+      </c>
+      <c r="F57" s="15">
+        <v>1</v>
+      </c>
+      <c r="G57" s="15">
+        <v>1</v>
+      </c>
+      <c r="H57" s="15">
+        <v>1</v>
+      </c>
+      <c r="I57" s="15">
+        <v>1</v>
+      </c>
+      <c r="J57" s="15">
+        <v>1</v>
+      </c>
+      <c r="K57" s="15">
+        <v>1</v>
+      </c>
+      <c r="L57" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="15">
+        <v>1</v>
+      </c>
+      <c r="D58" s="15">
+        <v>1</v>
+      </c>
+      <c r="E58" s="15">
+        <v>1</v>
+      </c>
+      <c r="F58" s="15">
+        <v>1</v>
+      </c>
+      <c r="G58" s="15">
+        <v>1</v>
+      </c>
+      <c r="H58" s="15">
+        <v>1</v>
+      </c>
+      <c r="I58" s="15">
+        <v>1</v>
+      </c>
+      <c r="J58" s="15">
+        <v>1</v>
+      </c>
+      <c r="K58" s="15">
+        <v>1</v>
+      </c>
+      <c r="L58" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="15">
+        <v>1</v>
+      </c>
+      <c r="D59" s="15">
+        <v>1</v>
+      </c>
+      <c r="E59" s="15">
+        <v>1</v>
+      </c>
+      <c r="F59" s="15">
+        <v>1</v>
+      </c>
+      <c r="G59" s="15">
+        <v>1</v>
+      </c>
+      <c r="H59" s="15">
+        <v>1</v>
+      </c>
+      <c r="I59" s="15">
+        <v>1</v>
+      </c>
+      <c r="J59" s="15">
+        <v>1</v>
+      </c>
+      <c r="K59" s="15">
+        <v>1</v>
+      </c>
+      <c r="L59" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="15">
+        <v>1</v>
+      </c>
+      <c r="D60" s="15">
+        <v>1</v>
+      </c>
+      <c r="E60" s="15">
+        <v>1</v>
+      </c>
+      <c r="F60" s="15">
+        <v>1</v>
+      </c>
+      <c r="G60" s="15">
+        <v>1</v>
+      </c>
+      <c r="H60" s="15">
+        <v>1</v>
+      </c>
+      <c r="I60" s="15">
+        <v>1</v>
+      </c>
+      <c r="J60" s="15">
+        <v>1</v>
+      </c>
+      <c r="K60" s="15">
+        <v>1</v>
+      </c>
+      <c r="L60" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="15">
+        <v>1</v>
+      </c>
+      <c r="D61" s="15">
+        <v>1</v>
+      </c>
+      <c r="E61" s="15">
+        <v>1</v>
+      </c>
+      <c r="F61" s="15">
+        <v>1</v>
+      </c>
+      <c r="G61" s="15">
+        <v>1</v>
+      </c>
+      <c r="H61" s="15">
+        <v>1</v>
+      </c>
+      <c r="I61" s="15">
+        <v>1</v>
+      </c>
+      <c r="J61" s="15">
+        <v>1</v>
+      </c>
+      <c r="K61" s="15">
+        <v>1</v>
+      </c>
+      <c r="L61" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="15">
+        <v>1</v>
+      </c>
+      <c r="D62" s="15">
+        <v>1</v>
+      </c>
+      <c r="E62" s="15">
+        <v>1</v>
+      </c>
+      <c r="F62" s="15">
+        <v>1</v>
+      </c>
+      <c r="G62" s="15">
+        <v>1</v>
+      </c>
+      <c r="H62" s="15">
+        <v>1</v>
+      </c>
+      <c r="I62" s="15">
+        <v>1</v>
+      </c>
+      <c r="J62" s="15">
+        <v>1</v>
+      </c>
+      <c r="K62" s="15">
+        <v>1</v>
+      </c>
+      <c r="L62" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="15">
+        <v>1</v>
+      </c>
+      <c r="D63" s="15">
+        <v>1</v>
+      </c>
+      <c r="E63" s="15">
+        <v>1</v>
+      </c>
+      <c r="F63" s="15">
+        <v>1</v>
+      </c>
+      <c r="G63" s="15">
+        <v>1</v>
+      </c>
+      <c r="H63" s="15">
+        <v>1</v>
+      </c>
+      <c r="I63" s="15">
+        <v>1</v>
+      </c>
+      <c r="J63" s="15">
+        <v>1</v>
+      </c>
+      <c r="K63" s="15">
+        <v>1</v>
+      </c>
+      <c r="L63" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="15">
+        <v>1</v>
+      </c>
+      <c r="D64" s="15">
+        <v>1</v>
+      </c>
+      <c r="E64" s="15">
+        <v>1</v>
+      </c>
+      <c r="F64" s="15">
+        <v>1</v>
+      </c>
+      <c r="G64" s="15">
+        <v>1</v>
+      </c>
+      <c r="H64" s="15">
+        <v>1</v>
+      </c>
+      <c r="I64" s="15">
+        <v>1</v>
+      </c>
+      <c r="J64" s="15">
+        <v>1</v>
+      </c>
+      <c r="K64" s="15">
+        <v>1</v>
+      </c>
+      <c r="L64" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="15">
+        <v>1</v>
+      </c>
+      <c r="D65" s="15">
+        <v>1</v>
+      </c>
+      <c r="E65" s="15">
+        <v>1</v>
+      </c>
+      <c r="F65" s="15">
+        <v>1</v>
+      </c>
+      <c r="G65" s="15">
+        <v>1</v>
+      </c>
+      <c r="H65" s="15">
+        <v>1</v>
+      </c>
+      <c r="I65" s="15">
+        <v>1</v>
+      </c>
+      <c r="J65" s="15">
+        <v>1</v>
+      </c>
+      <c r="K65" s="15">
+        <v>1</v>
+      </c>
+      <c r="L65" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="15">
+        <v>1</v>
+      </c>
+      <c r="D66" s="15">
+        <v>1</v>
+      </c>
+      <c r="E66" s="15">
+        <v>1</v>
+      </c>
+      <c r="F66" s="15">
+        <v>1</v>
+      </c>
+      <c r="G66" s="15">
+        <v>1</v>
+      </c>
+      <c r="H66" s="15">
+        <v>1</v>
+      </c>
+      <c r="I66" s="15">
+        <v>1</v>
+      </c>
+      <c r="J66" s="15">
+        <v>1</v>
+      </c>
+      <c r="K66" s="15">
+        <v>1</v>
+      </c>
+      <c r="L66" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="15">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15">
-        <v>1</v>
-      </c>
-      <c r="L11" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="16">
-        <v>1</v>
-      </c>
-      <c r="I12" s="16">
-        <v>1</v>
-      </c>
-      <c r="J12" s="16">
-        <v>1</v>
-      </c>
-      <c r="K12" s="16">
-        <v>1</v>
-      </c>
-      <c r="L12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <v>0</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="16">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1</v>
-      </c>
-      <c r="I14" s="16">
-        <v>1</v>
-      </c>
-      <c r="J14" s="16">
-        <v>1</v>
-      </c>
-      <c r="K14" s="16">
-        <v>1</v>
-      </c>
-      <c r="L14" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="18.75" customHeight="1"/>
-    <row r="16" spans="2:14" ht="18.75" customHeight="1"/>
-    <row r="20" spans="2:12">
-      <c r="B20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="15">
-        <v>1</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
-        <v>1</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15">
-        <v>1</v>
-      </c>
-      <c r="J20" s="15">
-        <v>0</v>
-      </c>
-      <c r="K20" s="15">
-        <v>0</v>
-      </c>
-      <c r="L20" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="16">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
-        <v>1</v>
-      </c>
-      <c r="H21" s="16">
-        <v>1</v>
-      </c>
-      <c r="I21" s="16">
-        <v>1</v>
-      </c>
-      <c r="J21" s="16">
-        <v>1</v>
-      </c>
-      <c r="K21" s="16">
-        <v>1</v>
-      </c>
-      <c r="L21" s="16">
+      <c r="C67" s="15">
+        <v>1</v>
+      </c>
+      <c r="D67" s="15">
+        <v>1</v>
+      </c>
+      <c r="E67" s="15">
+        <v>1</v>
+      </c>
+      <c r="F67" s="15">
+        <v>1</v>
+      </c>
+      <c r="G67" s="15">
+        <v>1</v>
+      </c>
+      <c r="H67" s="15">
+        <v>1</v>
+      </c>
+      <c r="I67" s="15">
+        <v>1</v>
+      </c>
+      <c r="J67" s="15">
+        <v>1</v>
+      </c>
+      <c r="K67" s="15">
+        <v>1</v>
+      </c>
+      <c r="L67" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="15">
+        <v>1</v>
+      </c>
+      <c r="D68" s="15">
+        <v>1</v>
+      </c>
+      <c r="E68" s="15">
+        <v>1</v>
+      </c>
+      <c r="F68" s="15">
+        <v>1</v>
+      </c>
+      <c r="G68" s="15">
+        <v>1</v>
+      </c>
+      <c r="H68" s="15">
+        <v>1</v>
+      </c>
+      <c r="I68" s="15">
+        <v>1</v>
+      </c>
+      <c r="J68" s="15">
+        <v>1</v>
+      </c>
+      <c r="K68" s="15">
+        <v>1</v>
+      </c>
+      <c r="L68" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="15">
+        <v>1</v>
+      </c>
+      <c r="D69" s="15">
+        <v>1</v>
+      </c>
+      <c r="E69" s="15">
+        <v>1</v>
+      </c>
+      <c r="F69" s="15">
+        <v>1</v>
+      </c>
+      <c r="G69" s="15">
+        <v>1</v>
+      </c>
+      <c r="H69" s="15">
+        <v>1</v>
+      </c>
+      <c r="I69" s="15">
+        <v>1</v>
+      </c>
+      <c r="J69" s="15">
+        <v>1</v>
+      </c>
+      <c r="K69" s="15">
+        <v>1</v>
+      </c>
+      <c r="L69" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="15">
+        <v>1</v>
+      </c>
+      <c r="D70" s="15">
+        <v>1</v>
+      </c>
+      <c r="E70" s="15">
+        <v>1</v>
+      </c>
+      <c r="F70" s="15">
+        <v>1</v>
+      </c>
+      <c r="G70" s="15">
+        <v>1</v>
+      </c>
+      <c r="H70" s="15">
+        <v>1</v>
+      </c>
+      <c r="I70" s="15">
+        <v>1</v>
+      </c>
+      <c r="J70" s="15">
+        <v>1</v>
+      </c>
+      <c r="K70" s="15">
+        <v>1</v>
+      </c>
+      <c r="L70" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="15">
+        <v>1</v>
+      </c>
+      <c r="D71" s="15">
+        <v>1</v>
+      </c>
+      <c r="E71" s="15">
+        <v>1</v>
+      </c>
+      <c r="F71" s="15">
+        <v>1</v>
+      </c>
+      <c r="G71" s="15">
+        <v>1</v>
+      </c>
+      <c r="H71" s="15">
+        <v>1</v>
+      </c>
+      <c r="I71" s="15">
+        <v>1</v>
+      </c>
+      <c r="J71" s="15">
+        <v>1</v>
+      </c>
+      <c r="K71" s="15">
+        <v>1</v>
+      </c>
+      <c r="L71" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="15">
+        <v>1</v>
+      </c>
+      <c r="D72" s="15">
+        <v>1</v>
+      </c>
+      <c r="E72" s="15">
+        <v>1</v>
+      </c>
+      <c r="F72" s="15">
+        <v>1</v>
+      </c>
+      <c r="G72" s="15">
+        <v>1</v>
+      </c>
+      <c r="H72" s="15">
+        <v>1</v>
+      </c>
+      <c r="I72" s="15">
+        <v>1</v>
+      </c>
+      <c r="J72" s="15">
+        <v>1</v>
+      </c>
+      <c r="K72" s="15">
+        <v>1</v>
+      </c>
+      <c r="L72" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="15">
+        <v>1</v>
+      </c>
+      <c r="D73" s="15">
+        <v>1</v>
+      </c>
+      <c r="E73" s="15">
+        <v>1</v>
+      </c>
+      <c r="F73" s="15">
+        <v>1</v>
+      </c>
+      <c r="G73" s="15">
+        <v>1</v>
+      </c>
+      <c r="H73" s="15">
+        <v>1</v>
+      </c>
+      <c r="I73" s="15">
+        <v>1</v>
+      </c>
+      <c r="J73" s="15">
+        <v>1</v>
+      </c>
+      <c r="K73" s="15">
+        <v>1</v>
+      </c>
+      <c r="L73" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="15">
+        <v>1</v>
+      </c>
+      <c r="D74" s="15">
+        <v>1</v>
+      </c>
+      <c r="E74" s="15">
+        <v>1</v>
+      </c>
+      <c r="F74" s="15">
+        <v>1</v>
+      </c>
+      <c r="G74" s="15">
+        <v>1</v>
+      </c>
+      <c r="H74" s="15">
+        <v>1</v>
+      </c>
+      <c r="I74" s="15">
+        <v>1</v>
+      </c>
+      <c r="J74" s="15">
+        <v>1</v>
+      </c>
+      <c r="K74" s="15">
+        <v>1</v>
+      </c>
+      <c r="L74" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" s="15">
+        <v>1</v>
+      </c>
+      <c r="D75" s="15">
+        <v>1</v>
+      </c>
+      <c r="E75" s="15">
+        <v>1</v>
+      </c>
+      <c r="F75" s="15">
+        <v>1</v>
+      </c>
+      <c r="G75" s="15">
+        <v>1</v>
+      </c>
+      <c r="H75" s="15">
+        <v>1</v>
+      </c>
+      <c r="I75" s="15">
+        <v>1</v>
+      </c>
+      <c r="J75" s="15">
+        <v>1</v>
+      </c>
+      <c r="K75" s="15">
+        <v>1</v>
+      </c>
+      <c r="L75" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="15">
+        <v>1</v>
+      </c>
+      <c r="D76" s="15">
+        <v>1</v>
+      </c>
+      <c r="E76" s="15">
+        <v>1</v>
+      </c>
+      <c r="F76" s="15">
+        <v>1</v>
+      </c>
+      <c r="G76" s="15">
+        <v>1</v>
+      </c>
+      <c r="H76" s="15">
+        <v>1</v>
+      </c>
+      <c r="I76" s="15">
+        <v>1</v>
+      </c>
+      <c r="J76" s="15">
+        <v>1</v>
+      </c>
+      <c r="K76" s="15">
+        <v>1</v>
+      </c>
+      <c r="L76" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="15">
+        <v>1</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1</v>
+      </c>
+      <c r="E77" s="15">
+        <v>1</v>
+      </c>
+      <c r="F77" s="15">
+        <v>1</v>
+      </c>
+      <c r="G77" s="15">
+        <v>1</v>
+      </c>
+      <c r="H77" s="15">
+        <v>1</v>
+      </c>
+      <c r="I77" s="15">
+        <v>1</v>
+      </c>
+      <c r="J77" s="15">
+        <v>1</v>
+      </c>
+      <c r="K77" s="15">
+        <v>1</v>
+      </c>
+      <c r="L77" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="15">
+        <v>1</v>
+      </c>
+      <c r="D78" s="15">
+        <v>1</v>
+      </c>
+      <c r="E78" s="15">
+        <v>1</v>
+      </c>
+      <c r="F78" s="15">
+        <v>1</v>
+      </c>
+      <c r="G78" s="15">
+        <v>1</v>
+      </c>
+      <c r="H78" s="15">
+        <v>1</v>
+      </c>
+      <c r="I78" s="15">
+        <v>1</v>
+      </c>
+      <c r="J78" s="15">
+        <v>1</v>
+      </c>
+      <c r="K78" s="15">
+        <v>1</v>
+      </c>
+      <c r="L78" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="15">
+        <v>1</v>
+      </c>
+      <c r="E79" s="15">
+        <v>1</v>
+      </c>
+      <c r="F79" s="15">
+        <v>1</v>
+      </c>
+      <c r="G79" s="15">
+        <v>1</v>
+      </c>
+      <c r="H79" s="15">
+        <v>1</v>
+      </c>
+      <c r="I79" s="15">
+        <v>1</v>
+      </c>
+      <c r="J79" s="15">
+        <v>1</v>
+      </c>
+      <c r="K79" s="15">
+        <v>1</v>
+      </c>
+      <c r="L79" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="15">
+        <v>1</v>
+      </c>
+      <c r="D80" s="15">
+        <v>1</v>
+      </c>
+      <c r="E80" s="15">
+        <v>1</v>
+      </c>
+      <c r="F80" s="15">
+        <v>1</v>
+      </c>
+      <c r="G80" s="15">
+        <v>1</v>
+      </c>
+      <c r="H80" s="15">
+        <v>1</v>
+      </c>
+      <c r="I80" s="15">
+        <v>1</v>
+      </c>
+      <c r="J80" s="15">
+        <v>1</v>
+      </c>
+      <c r="K80" s="15">
+        <v>1</v>
+      </c>
+      <c r="L80" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="15">
+        <v>1</v>
+      </c>
+      <c r="D81" s="15">
+        <v>1</v>
+      </c>
+      <c r="E81" s="15">
+        <v>1</v>
+      </c>
+      <c r="F81" s="15">
+        <v>1</v>
+      </c>
+      <c r="G81" s="15">
+        <v>1</v>
+      </c>
+      <c r="H81" s="15">
+        <v>1</v>
+      </c>
+      <c r="I81" s="15">
+        <v>1</v>
+      </c>
+      <c r="J81" s="15">
+        <v>1</v>
+      </c>
+      <c r="K81" s="15">
+        <v>1</v>
+      </c>
+      <c r="L81" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="15">
+        <v>1</v>
+      </c>
+      <c r="D82" s="15">
+        <v>1</v>
+      </c>
+      <c r="E82" s="15">
+        <v>1</v>
+      </c>
+      <c r="F82" s="15">
+        <v>1</v>
+      </c>
+      <c r="G82" s="15">
+        <v>1</v>
+      </c>
+      <c r="H82" s="15">
+        <v>1</v>
+      </c>
+      <c r="I82" s="15">
+        <v>1</v>
+      </c>
+      <c r="J82" s="15">
+        <v>1</v>
+      </c>
+      <c r="K82" s="15">
+        <v>1</v>
+      </c>
+      <c r="L82" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="15">
+        <v>1</v>
+      </c>
+      <c r="D83" s="15">
+        <v>1</v>
+      </c>
+      <c r="E83" s="15">
+        <v>1</v>
+      </c>
+      <c r="F83" s="15">
+        <v>1</v>
+      </c>
+      <c r="G83" s="15">
+        <v>1</v>
+      </c>
+      <c r="H83" s="15">
+        <v>1</v>
+      </c>
+      <c r="I83" s="15">
+        <v>1</v>
+      </c>
+      <c r="J83" s="15">
+        <v>1</v>
+      </c>
+      <c r="K83" s="15">
+        <v>1</v>
+      </c>
+      <c r="L83" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="15">
+        <v>1</v>
+      </c>
+      <c r="D84" s="15">
+        <v>1</v>
+      </c>
+      <c r="E84" s="15">
+        <v>1</v>
+      </c>
+      <c r="F84" s="15">
+        <v>1</v>
+      </c>
+      <c r="G84" s="15">
+        <v>1</v>
+      </c>
+      <c r="H84" s="15">
+        <v>1</v>
+      </c>
+      <c r="I84" s="15">
+        <v>1</v>
+      </c>
+      <c r="J84" s="15">
+        <v>1</v>
+      </c>
+      <c r="K84" s="15">
+        <v>1</v>
+      </c>
+      <c r="L84" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="15">
+        <v>1</v>
+      </c>
+      <c r="D85" s="15">
+        <v>1</v>
+      </c>
+      <c r="E85" s="15">
+        <v>1</v>
+      </c>
+      <c r="F85" s="15">
+        <v>1</v>
+      </c>
+      <c r="G85" s="15">
+        <v>1</v>
+      </c>
+      <c r="H85" s="15">
+        <v>1</v>
+      </c>
+      <c r="I85" s="15">
+        <v>1</v>
+      </c>
+      <c r="J85" s="15">
+        <v>1</v>
+      </c>
+      <c r="K85" s="15">
+        <v>1</v>
+      </c>
+      <c r="L85" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="15">
+        <v>1</v>
+      </c>
+      <c r="D86" s="15">
+        <v>1</v>
+      </c>
+      <c r="E86" s="15">
+        <v>1</v>
+      </c>
+      <c r="F86" s="15">
+        <v>1</v>
+      </c>
+      <c r="G86" s="15">
+        <v>1</v>
+      </c>
+      <c r="H86" s="15">
+        <v>1</v>
+      </c>
+      <c r="I86" s="15">
+        <v>1</v>
+      </c>
+      <c r="J86" s="15">
+        <v>1</v>
+      </c>
+      <c r="K86" s="15">
+        <v>1</v>
+      </c>
+      <c r="L86" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" s="15">
+        <v>1</v>
+      </c>
+      <c r="D87" s="15">
+        <v>1</v>
+      </c>
+      <c r="E87" s="15">
+        <v>1</v>
+      </c>
+      <c r="F87" s="15">
+        <v>1</v>
+      </c>
+      <c r="G87" s="15">
+        <v>1</v>
+      </c>
+      <c r="H87" s="15">
+        <v>1</v>
+      </c>
+      <c r="I87" s="15">
+        <v>1</v>
+      </c>
+      <c r="J87" s="15">
+        <v>1</v>
+      </c>
+      <c r="K87" s="15">
+        <v>1</v>
+      </c>
+      <c r="L87" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="15">
+        <v>1</v>
+      </c>
+      <c r="D88" s="15">
+        <v>1</v>
+      </c>
+      <c r="E88" s="15">
+        <v>1</v>
+      </c>
+      <c r="F88" s="15">
+        <v>1</v>
+      </c>
+      <c r="G88" s="15">
+        <v>1</v>
+      </c>
+      <c r="H88" s="15">
+        <v>1</v>
+      </c>
+      <c r="I88" s="15">
+        <v>1</v>
+      </c>
+      <c r="J88" s="15">
+        <v>1</v>
+      </c>
+      <c r="K88" s="15">
+        <v>1</v>
+      </c>
+      <c r="L88" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="15">
+        <v>1</v>
+      </c>
+      <c r="D89" s="15">
+        <v>1</v>
+      </c>
+      <c r="E89" s="15">
+        <v>1</v>
+      </c>
+      <c r="F89" s="15">
+        <v>1</v>
+      </c>
+      <c r="G89" s="15">
+        <v>1</v>
+      </c>
+      <c r="H89" s="15">
+        <v>1</v>
+      </c>
+      <c r="I89" s="15">
+        <v>1</v>
+      </c>
+      <c r="J89" s="15">
+        <v>1</v>
+      </c>
+      <c r="K89" s="15">
+        <v>1</v>
+      </c>
+      <c r="L89" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="15">
+        <v>1</v>
+      </c>
+      <c r="D90" s="15">
+        <v>1</v>
+      </c>
+      <c r="E90" s="15">
+        <v>1</v>
+      </c>
+      <c r="F90" s="15">
+        <v>1</v>
+      </c>
+      <c r="G90" s="15">
+        <v>1</v>
+      </c>
+      <c r="H90" s="15">
+        <v>1</v>
+      </c>
+      <c r="I90" s="15">
+        <v>1</v>
+      </c>
+      <c r="J90" s="15">
+        <v>1</v>
+      </c>
+      <c r="K90" s="15">
+        <v>1</v>
+      </c>
+      <c r="L90" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" s="15">
+        <v>1</v>
+      </c>
+      <c r="D91" s="15">
+        <v>1</v>
+      </c>
+      <c r="E91" s="15">
+        <v>1</v>
+      </c>
+      <c r="F91" s="15">
+        <v>1</v>
+      </c>
+      <c r="G91" s="15">
+        <v>1</v>
+      </c>
+      <c r="H91" s="15">
+        <v>1</v>
+      </c>
+      <c r="I91" s="15">
+        <v>1</v>
+      </c>
+      <c r="J91" s="15">
+        <v>1</v>
+      </c>
+      <c r="K91" s="15">
+        <v>1</v>
+      </c>
+      <c r="L91" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="15">
+        <v>1</v>
+      </c>
+      <c r="D92" s="15">
+        <v>1</v>
+      </c>
+      <c r="E92" s="15">
+        <v>1</v>
+      </c>
+      <c r="F92" s="15">
+        <v>1</v>
+      </c>
+      <c r="G92" s="15">
+        <v>1</v>
+      </c>
+      <c r="H92" s="15">
+        <v>1</v>
+      </c>
+      <c r="I92" s="15">
+        <v>1</v>
+      </c>
+      <c r="J92" s="15">
+        <v>1</v>
+      </c>
+      <c r="K92" s="15">
+        <v>1</v>
+      </c>
+      <c r="L92" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" s="15">
+        <v>1</v>
+      </c>
+      <c r="D93" s="15">
+        <v>1</v>
+      </c>
+      <c r="E93" s="15">
+        <v>1</v>
+      </c>
+      <c r="F93" s="15">
+        <v>1</v>
+      </c>
+      <c r="G93" s="15">
+        <v>1</v>
+      </c>
+      <c r="H93" s="15">
+        <v>1</v>
+      </c>
+      <c r="I93" s="15">
+        <v>1</v>
+      </c>
+      <c r="J93" s="15">
+        <v>1</v>
+      </c>
+      <c r="K93" s="15">
+        <v>1</v>
+      </c>
+      <c r="L93" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="15">
+        <v>1</v>
+      </c>
+      <c r="D94" s="15">
+        <v>1</v>
+      </c>
+      <c r="E94" s="15">
+        <v>1</v>
+      </c>
+      <c r="F94" s="15">
+        <v>1</v>
+      </c>
+      <c r="G94" s="15">
+        <v>1</v>
+      </c>
+      <c r="H94" s="15">
+        <v>1</v>
+      </c>
+      <c r="I94" s="15">
+        <v>1</v>
+      </c>
+      <c r="J94" s="15">
+        <v>1</v>
+      </c>
+      <c r="K94" s="15">
+        <v>1</v>
+      </c>
+      <c r="L94" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="15">
+        <v>1</v>
+      </c>
+      <c r="D95" s="15">
+        <v>1</v>
+      </c>
+      <c r="E95" s="15">
+        <v>1</v>
+      </c>
+      <c r="F95" s="15">
+        <v>1</v>
+      </c>
+      <c r="G95" s="15">
+        <v>1</v>
+      </c>
+      <c r="H95" s="15">
+        <v>1</v>
+      </c>
+      <c r="I95" s="15">
+        <v>1</v>
+      </c>
+      <c r="J95" s="15">
+        <v>1</v>
+      </c>
+      <c r="K95" s="15">
+        <v>1</v>
+      </c>
+      <c r="L95" s="15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C20:L21 C11:L14">
+  <conditionalFormatting sqref="C11:L95">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1620,7 +4620,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="5" width="18" customWidth="1"/>
@@ -1629,9 +4629,9 @@
     <col min="9" max="20" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16.149999999999999" thickBot="1">
+    <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1641,9 +4641,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:10" s="18" customFormat="1" ht="26.45" customHeight="1">
+    <row r="3" spans="2:10" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -1653,7 +4653,7 @@
       <c r="H3" s="23"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="2:10" s="18" customFormat="1" ht="26.45" customHeight="1">
+    <row r="4" spans="2:10" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -1663,7 +4663,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="2:10" s="18" customFormat="1" ht="26.45" customHeight="1">
+    <row r="5" spans="2:10" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -1673,7 +4673,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="2:10" s="18" customFormat="1" ht="26.45" customHeight="1">
+    <row r="6" spans="2:10" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -1683,7 +4683,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="2:10" s="18" customFormat="1" ht="26.45" customHeight="1" thickBot="1">
+    <row r="7" spans="2:10" s="18" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -1693,9 +4693,9 @@
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="10" spans="2:10" ht="18.75" customHeight="1">
+    <row r="10" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1706,65 +4706,65 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="J11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="19" t="s">
+    </row>
+    <row r="12" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="F12" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="40.15" thickBot="1">
-      <c r="B12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
       <c r="G12" s="20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="2:10" ht="18.75" customHeight="1" thickBot="1">
+    <row r="13" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -1775,9 +4775,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
     </row>
-    <row r="16" spans="2:10" ht="15.6">
+    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1788,127 +4788,127 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="D18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="19" t="s">
+      <c r="E18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" s="19" t="s">
+      <c r="J18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="19" t="s">
+      <c r="K18" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="S17" s="19" t="s">
+      <c r="L18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="T17" s="19" t="s">
+      <c r="M18" s="20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" ht="40.15" thickBot="1">
-      <c r="B18" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="20" t="s">
+      <c r="N18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="O18" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="P18" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="Q18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="R18" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="S18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="T18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="P18" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="R18" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="S18" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="T18" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" ht="15" thickBot="1">
+    </row>
+    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -1939,6 +4939,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
     <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
@@ -2082,15 +5091,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2098,13 +5098,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236A4724-765C-4055-A143-F93AE9308017}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DBC7704-40A8-488D-B709-36DD67489795}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DBC7704-40A8-488D-B709-36DD67489795}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236A4724-765C-4055-A143-F93AE9308017}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F6CBEA-460B-4434-9DF7-2A04F7FC4DEA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F6CBEA-460B-4434-9DF7-2A04F7FC4DEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>